--- a/TCS_NEWUI-ViewAd popup.xlsx
+++ b/TCS_NEWUI-ViewAd popup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78187BC4-52C1-4BC8-9543-86BF9430D1DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61733382-255B-4F82-9CF2-518B6072F14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{48F7C0BB-C9F3-40D2-A62C-5F9EA527FC65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48F7C0BB-C9F3-40D2-A62C-5F9EA527FC65}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -960,9 +960,6 @@
     <t>TC24</t>
   </si>
   <si>
-    <t>SMRT-7585</t>
-  </si>
-  <si>
     <t>SMRT-7636</t>
   </si>
   <si>
@@ -1172,6 +1169,9 @@
   </si>
   <si>
     <t>Click on More details TAB from Carousel</t>
+  </si>
+  <si>
+    <t>SMRT-7485</t>
   </si>
 </sst>
 </file>
@@ -3942,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681487C-B02A-4BFD-ADD9-34AC95343EB1}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3976,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -4177,7 +4177,7 @@
         <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4188,7 +4188,7 @@
         <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4196,32 +4196,32 @@
         <v>232</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" t="s">
         <v>244</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
         <v>256</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9683C45-4068-4264-A639-9646BF3B40A9}">
   <dimension ref="A1:H974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A263" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
@@ -8721,7 +8721,7 @@
         <v>216</v>
       </c>
       <c r="D231" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E231" s="39"/>
       <c r="F231" s="40" t="s">
@@ -8856,7 +8856,7 @@
         <v>216</v>
       </c>
       <c r="D239" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E239" s="39"/>
       <c r="F239" s="40" t="s">
@@ -8913,10 +8913,10 @@
     </row>
     <row r="243" spans="1:7" s="30" customFormat="1">
       <c r="A243" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243" s="85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C243" s="86"/>
       <c r="D243" s="86"/>
@@ -8976,7 +8976,7 @@
         <v>216</v>
       </c>
       <c r="D246" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E246" s="39"/>
       <c r="F246" s="40" t="s">
@@ -8995,7 +8995,7 @@
         <v>223</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E247" s="39"/>
       <c r="F247" s="40" t="s">
@@ -9008,10 +9008,10 @@
         <v>3</v>
       </c>
       <c r="B248" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C248" s="39" t="s">
         <v>237</v>
-      </c>
-      <c r="C248" s="39" t="s">
-        <v>238</v>
       </c>
       <c r="D248" s="39"/>
       <c r="E248" s="39"/>
@@ -9025,10 +9025,10 @@
         <v>4</v>
       </c>
       <c r="B249" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C249" s="39" t="s">
         <v>239</v>
-      </c>
-      <c r="C249" s="39" t="s">
-        <v>240</v>
       </c>
       <c r="D249" s="39"/>
       <c r="E249" s="39"/>
@@ -9042,10 +9042,10 @@
         <v>5</v>
       </c>
       <c r="B250" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C250" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="C250" s="39" t="s">
-        <v>242</v>
       </c>
       <c r="D250" s="39"/>
       <c r="E250" s="39"/>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="252" spans="1:7" s="30" customFormat="1">
       <c r="A252" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B252" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C252" s="86"/>
       <c r="D252" s="86"/>
@@ -9130,7 +9130,7 @@
         <v>216</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E255" s="39"/>
       <c r="F255" s="40" t="s">
@@ -9146,10 +9146,10 @@
         <v>229</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E256" s="39"/>
       <c r="F256" s="40" t="s">
@@ -9162,10 +9162,10 @@
         <v>3</v>
       </c>
       <c r="B257" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C257" s="39" t="s">
         <v>250</v>
-      </c>
-      <c r="C257" s="39" t="s">
-        <v>251</v>
       </c>
       <c r="D257" s="39"/>
       <c r="E257" s="39"/>
@@ -9179,10 +9179,10 @@
         <v>3</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D258" s="39"/>
       <c r="E258" s="39"/>
@@ -9196,10 +9196,10 @@
         <v>4</v>
       </c>
       <c r="B259" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C259" s="39" t="s">
         <v>239</v>
-      </c>
-      <c r="C259" s="39" t="s">
-        <v>240</v>
       </c>
       <c r="D259" s="39"/>
       <c r="E259" s="39"/>
@@ -9213,10 +9213,10 @@
         <v>5</v>
       </c>
       <c r="B260" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C260" s="39" t="s">
         <v>252</v>
-      </c>
-      <c r="C260" s="39" t="s">
-        <v>253</v>
       </c>
       <c r="D260" s="39"/>
       <c r="E260" s="39"/>
@@ -9238,10 +9238,10 @@
     </row>
     <row r="262" spans="1:7" s="30" customFormat="1">
       <c r="A262" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B262" s="85" t="s">
         <v>260</v>
-      </c>
-      <c r="B262" s="85" t="s">
-        <v>261</v>
       </c>
       <c r="C262" s="86"/>
       <c r="D262" s="86"/>
@@ -9301,7 +9301,7 @@
         <v>216</v>
       </c>
       <c r="D265" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E265" s="39"/>
       <c r="F265" s="40" t="s">
@@ -9314,10 +9314,10 @@
         <v>2</v>
       </c>
       <c r="B266" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C266" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D266" s="39"/>
       <c r="E266" s="39"/>
@@ -9331,10 +9331,10 @@
         <v>3</v>
       </c>
       <c r="B267" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C267" s="39" t="s">
         <v>239</v>
-      </c>
-      <c r="C267" s="39" t="s">
-        <v>240</v>
       </c>
       <c r="D267" s="39"/>
       <c r="E267" s="39"/>
@@ -9348,10 +9348,10 @@
         <v>4</v>
       </c>
       <c r="B268" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C268" s="39" t="s">
         <v>262</v>
-      </c>
-      <c r="C268" s="39" t="s">
-        <v>263</v>
       </c>
       <c r="D268" s="39"/>
       <c r="E268" s="39"/>

--- a/TCS_NEWUI-ViewAd popup.xlsx
+++ b/TCS_NEWUI-ViewAd popup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61733382-255B-4F82-9CF2-518B6072F14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC6F18-FA6D-415B-82B5-C5253836E7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48F7C0BB-C9F3-40D2-A62C-5F9EA527FC65}"/>
   </bookViews>
@@ -2113,6 +2113,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2130,15 +2139,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3943,7 +3943,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5128,12 +5128,12 @@
       <c r="A18" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="33" t="s">
         <v>45</v>
       </c>
@@ -5147,14 +5147,14 @@
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1">
       <c r="A20" s="36" t="s">
@@ -5321,23 +5321,23 @@
       <c r="A29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:8" s="30" customFormat="1">
       <c r="A30" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
       <c r="F30" s="33" t="s">
         <v>45</v>
       </c>
@@ -5351,14 +5351,14 @@
       <c r="A31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84"/>
     </row>
     <row r="32" spans="1:8" s="30" customFormat="1">
       <c r="A32" s="36" t="s">
@@ -5440,23 +5440,23 @@
       <c r="A36" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
     </row>
     <row r="37" spans="1:8" s="30" customFormat="1">
       <c r="A37" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="33" t="s">
         <v>45</v>
       </c>
@@ -5469,14 +5469,14 @@
       <c r="A38" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="90"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="1:8" s="30" customFormat="1">
       <c r="A39" s="36" t="s">
@@ -5594,23 +5594,23 @@
       <c r="A45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
     </row>
     <row r="46" spans="1:8" s="30" customFormat="1">
       <c r="A46" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="87"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="90"/>
       <c r="F46" s="33" t="s">
         <v>45</v>
       </c>
@@ -5623,14 +5623,14 @@
       <c r="A47" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="90"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="84"/>
     </row>
     <row r="48" spans="1:8" s="30" customFormat="1">
       <c r="A48" s="36" t="s">
@@ -5727,23 +5727,23 @@
       <c r="A53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="87"/>
     </row>
     <row r="54" spans="1:7" s="30" customFormat="1">
       <c r="A54" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="87"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="33" t="s">
         <v>45</v>
       </c>
@@ -5756,14 +5756,14 @@
       <c r="A55" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="90"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="84"/>
     </row>
     <row r="56" spans="1:7" s="30" customFormat="1">
       <c r="A56" s="36" t="s">
@@ -5894,23 +5894,23 @@
       <c r="A63" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="82"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="84"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="87"/>
     </row>
     <row r="64" spans="1:7" s="30" customFormat="1">
       <c r="A64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="87"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="90"/>
       <c r="F64" s="33" t="s">
         <v>45</v>
       </c>
@@ -5923,14 +5923,14 @@
       <c r="A65" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="90"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="84"/>
     </row>
     <row r="66" spans="1:7" s="30" customFormat="1">
       <c r="A66" s="36" t="s">
@@ -6123,12 +6123,12 @@
       <c r="A77" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="85" t="s">
+      <c r="B77" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="87"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
       <c r="F77" s="33" t="s">
         <v>45</v>
       </c>
@@ -6141,14 +6141,14 @@
       <c r="A78" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="90"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="84"/>
     </row>
     <row r="79" spans="1:7" s="30" customFormat="1">
       <c r="A79" s="36" t="s">
@@ -6326,12 +6326,12 @@
       <c r="A89" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="85" t="s">
+      <c r="B89" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="87"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="90"/>
       <c r="F89" s="33" t="s">
         <v>45</v>
       </c>
@@ -6344,14 +6344,14 @@
       <c r="A90" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="90"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="84"/>
     </row>
     <row r="91" spans="1:7" s="30" customFormat="1">
       <c r="A91" s="36" t="s">
@@ -6529,12 +6529,12 @@
       <c r="A101" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="87"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="90"/>
       <c r="F101" s="33" t="s">
         <v>45</v>
       </c>
@@ -6547,14 +6547,14 @@
       <c r="A102" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="90"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="84"/>
     </row>
     <row r="103" spans="1:7" s="30" customFormat="1">
       <c r="A103" s="36" t="s">
@@ -6732,12 +6732,12 @@
       <c r="A113" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="85" t="s">
+      <c r="B113" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
-      <c r="E113" s="87"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="90"/>
       <c r="F113" s="33" t="s">
         <v>45</v>
       </c>
@@ -6750,14 +6750,14 @@
       <c r="A114" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B114" s="88" t="s">
+      <c r="B114" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="89"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="89"/>
-      <c r="G114" s="90"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="84"/>
     </row>
     <row r="115" spans="1:7" s="30" customFormat="1">
       <c r="A115" s="36" t="s">
@@ -6935,12 +6935,12 @@
       <c r="A125" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="85" t="s">
+      <c r="B125" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="C125" s="86"/>
-      <c r="D125" s="86"/>
-      <c r="E125" s="87"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="90"/>
       <c r="F125" s="33" t="s">
         <v>45</v>
       </c>
@@ -6953,14 +6953,14 @@
       <c r="A126" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="88" t="s">
+      <c r="B126" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="89"/>
-      <c r="G126" s="90"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="84"/>
     </row>
     <row r="127" spans="1:7" s="30" customFormat="1">
       <c r="A127" s="36" t="s">
@@ -7138,12 +7138,12 @@
       <c r="A137" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="85" t="s">
+      <c r="B137" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="C137" s="86"/>
-      <c r="D137" s="86"/>
-      <c r="E137" s="87"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="90"/>
       <c r="F137" s="33" t="s">
         <v>45</v>
       </c>
@@ -7156,14 +7156,14 @@
       <c r="A138" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B138" s="88" t="s">
+      <c r="B138" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="90"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="84"/>
     </row>
     <row r="139" spans="1:7" s="30" customFormat="1">
       <c r="A139" s="36" t="s">
@@ -7341,12 +7341,12 @@
       <c r="A149" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="85" t="s">
+      <c r="B149" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="87"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="90"/>
       <c r="F149" s="33" t="s">
         <v>45</v>
       </c>
@@ -7359,14 +7359,14 @@
       <c r="A150" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B150" s="88" t="s">
+      <c r="B150" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="89"/>
-      <c r="G150" s="90"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="84"/>
     </row>
     <row r="151" spans="1:7" s="30" customFormat="1">
       <c r="A151" s="36" t="s">
@@ -7544,12 +7544,12 @@
       <c r="A161" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B161" s="85" t="s">
+      <c r="B161" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C161" s="86"/>
-      <c r="D161" s="86"/>
-      <c r="E161" s="87"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="89"/>
+      <c r="E161" s="90"/>
       <c r="F161" s="33" t="s">
         <v>45</v>
       </c>
@@ -7562,14 +7562,14 @@
       <c r="A162" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B162" s="88" t="s">
+      <c r="B162" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="89"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="89"/>
-      <c r="G162" s="90"/>
+      <c r="C162" s="83"/>
+      <c r="D162" s="83"/>
+      <c r="E162" s="83"/>
+      <c r="F162" s="83"/>
+      <c r="G162" s="84"/>
     </row>
     <row r="163" spans="1:7" s="30" customFormat="1">
       <c r="A163" s="36" t="s">
@@ -7694,12 +7694,12 @@
       <c r="A170" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B170" s="85" t="s">
+      <c r="B170" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
-      <c r="E170" s="87"/>
+      <c r="C170" s="89"/>
+      <c r="D170" s="89"/>
+      <c r="E170" s="90"/>
       <c r="F170" s="33" t="s">
         <v>45</v>
       </c>
@@ -7712,14 +7712,14 @@
       <c r="A171" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B171" s="88" t="s">
+      <c r="B171" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="89"/>
-      <c r="D171" s="89"/>
-      <c r="E171" s="89"/>
-      <c r="F171" s="89"/>
-      <c r="G171" s="90"/>
+      <c r="C171" s="83"/>
+      <c r="D171" s="83"/>
+      <c r="E171" s="83"/>
+      <c r="F171" s="83"/>
+      <c r="G171" s="84"/>
     </row>
     <row r="172" spans="1:7" s="30" customFormat="1">
       <c r="A172" s="36" t="s">
@@ -7861,12 +7861,12 @@
       <c r="A180" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B180" s="85" t="s">
+      <c r="B180" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="86"/>
-      <c r="D180" s="86"/>
-      <c r="E180" s="87"/>
+      <c r="C180" s="89"/>
+      <c r="D180" s="89"/>
+      <c r="E180" s="90"/>
       <c r="F180" s="33"/>
       <c r="G180" s="34" t="str">
         <f>IF(COUNTIF(F183:F187,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F183:F187,"Fail")&gt;0,"Fail",IF(COUNTIF(F183:F187,"")=0,"Pass","Not Executed")))</f>
@@ -7877,14 +7877,14 @@
       <c r="A181" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B181" s="88" t="s">
+      <c r="B181" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C181" s="89"/>
-      <c r="D181" s="89"/>
-      <c r="E181" s="89"/>
-      <c r="F181" s="89"/>
-      <c r="G181" s="90"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="83"/>
+      <c r="E181" s="83"/>
+      <c r="F181" s="83"/>
+      <c r="G181" s="84"/>
     </row>
     <row r="182" spans="1:8" s="30" customFormat="1">
       <c r="A182" s="36" t="s">
@@ -7998,23 +7998,23 @@
       <c r="A188" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B188" s="82"/>
-      <c r="C188" s="83"/>
-      <c r="D188" s="83"/>
-      <c r="E188" s="83"/>
-      <c r="F188" s="83"/>
-      <c r="G188" s="84"/>
+      <c r="B188" s="85"/>
+      <c r="C188" s="86"/>
+      <c r="D188" s="86"/>
+      <c r="E188" s="86"/>
+      <c r="F188" s="86"/>
+      <c r="G188" s="87"/>
     </row>
     <row r="189" spans="1:8" s="43" customFormat="1">
       <c r="A189" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B189" s="85" t="s">
+      <c r="B189" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="C189" s="86"/>
-      <c r="D189" s="86"/>
-      <c r="E189" s="87"/>
+      <c r="C189" s="89"/>
+      <c r="D189" s="89"/>
+      <c r="E189" s="90"/>
       <c r="F189" s="33"/>
       <c r="G189" s="34" t="str">
         <f>IF(COUNTIF(F192:F196,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F192:F196,"Fail")&gt;0,"Fail",IF(COUNTIF(F192:F196,"")=0,"Pass","Not Executed")))</f>
@@ -8025,14 +8025,14 @@
       <c r="A190" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B190" s="88" t="s">
+      <c r="B190" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C190" s="89"/>
-      <c r="D190" s="89"/>
-      <c r="E190" s="89"/>
-      <c r="F190" s="89"/>
-      <c r="G190" s="90"/>
+      <c r="C190" s="83"/>
+      <c r="D190" s="83"/>
+      <c r="E190" s="83"/>
+      <c r="F190" s="83"/>
+      <c r="G190" s="84"/>
     </row>
     <row r="191" spans="1:8" s="43" customFormat="1">
       <c r="A191" s="36" t="s">
@@ -8160,12 +8160,12 @@
       <c r="A198" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B198" s="85" t="s">
+      <c r="B198" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="C198" s="86"/>
-      <c r="D198" s="86"/>
-      <c r="E198" s="87"/>
+      <c r="C198" s="89"/>
+      <c r="D198" s="89"/>
+      <c r="E198" s="90"/>
       <c r="F198" s="33" t="s">
         <v>45</v>
       </c>
@@ -8178,14 +8178,14 @@
       <c r="A199" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="88" t="s">
+      <c r="B199" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C199" s="89"/>
-      <c r="D199" s="89"/>
-      <c r="E199" s="89"/>
-      <c r="F199" s="89"/>
-      <c r="G199" s="90"/>
+      <c r="C199" s="83"/>
+      <c r="D199" s="83"/>
+      <c r="E199" s="83"/>
+      <c r="F199" s="83"/>
+      <c r="G199" s="84"/>
     </row>
     <row r="200" spans="1:7" s="30" customFormat="1">
       <c r="A200" s="36" t="s">
@@ -8265,23 +8265,23 @@
       <c r="A204" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="82"/>
-      <c r="C204" s="83"/>
-      <c r="D204" s="83"/>
-      <c r="E204" s="83"/>
-      <c r="F204" s="83"/>
-      <c r="G204" s="84"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="86"/>
+      <c r="G204" s="87"/>
     </row>
     <row r="205" spans="1:7" s="30" customFormat="1">
       <c r="A205" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B205" s="85" t="s">
+      <c r="B205" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="86"/>
-      <c r="D205" s="86"/>
-      <c r="E205" s="87"/>
+      <c r="C205" s="89"/>
+      <c r="D205" s="89"/>
+      <c r="E205" s="90"/>
       <c r="F205" s="33" t="s">
         <v>45</v>
       </c>
@@ -8294,14 +8294,14 @@
       <c r="A206" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B206" s="88" t="s">
+      <c r="B206" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C206" s="89"/>
-      <c r="D206" s="89"/>
-      <c r="E206" s="89"/>
-      <c r="F206" s="89"/>
-      <c r="G206" s="90"/>
+      <c r="C206" s="83"/>
+      <c r="D206" s="83"/>
+      <c r="E206" s="83"/>
+      <c r="F206" s="83"/>
+      <c r="G206" s="84"/>
     </row>
     <row r="207" spans="1:7" s="30" customFormat="1">
       <c r="A207" s="36" t="s">
@@ -8381,23 +8381,23 @@
       <c r="A211" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="82"/>
-      <c r="C211" s="83"/>
-      <c r="D211" s="83"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="83"/>
-      <c r="G211" s="84"/>
+      <c r="B211" s="85"/>
+      <c r="C211" s="86"/>
+      <c r="D211" s="86"/>
+      <c r="E211" s="86"/>
+      <c r="F211" s="86"/>
+      <c r="G211" s="87"/>
     </row>
     <row r="212" spans="1:7" s="30" customFormat="1">
       <c r="A212" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B212" s="85" t="s">
+      <c r="B212" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C212" s="86"/>
-      <c r="D212" s="86"/>
-      <c r="E212" s="87"/>
+      <c r="C212" s="89"/>
+      <c r="D212" s="89"/>
+      <c r="E212" s="90"/>
       <c r="F212" s="33" t="s">
         <v>45</v>
       </c>
@@ -8410,14 +8410,14 @@
       <c r="A213" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B213" s="88" t="s">
+      <c r="B213" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C213" s="89"/>
-      <c r="D213" s="89"/>
-      <c r="E213" s="89"/>
-      <c r="F213" s="89"/>
-      <c r="G213" s="90"/>
+      <c r="C213" s="83"/>
+      <c r="D213" s="83"/>
+      <c r="E213" s="83"/>
+      <c r="F213" s="83"/>
+      <c r="G213" s="84"/>
     </row>
     <row r="214" spans="1:7" s="30" customFormat="1">
       <c r="A214" s="36" t="s">
@@ -8516,23 +8516,23 @@
       <c r="A219" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B219" s="82"/>
-      <c r="C219" s="83"/>
-      <c r="D219" s="83"/>
-      <c r="E219" s="83"/>
-      <c r="F219" s="83"/>
-      <c r="G219" s="84"/>
+      <c r="B219" s="85"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="86"/>
+      <c r="E219" s="86"/>
+      <c r="F219" s="86"/>
+      <c r="G219" s="87"/>
     </row>
     <row r="220" spans="1:7" s="30" customFormat="1">
       <c r="A220" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B220" s="85" t="s">
+      <c r="B220" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
-      <c r="E220" s="87"/>
+      <c r="C220" s="89"/>
+      <c r="D220" s="89"/>
+      <c r="E220" s="90"/>
       <c r="F220" s="33" t="s">
         <v>45</v>
       </c>
@@ -8545,14 +8545,14 @@
       <c r="A221" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="88" t="s">
+      <c r="B221" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C221" s="89"/>
-      <c r="D221" s="89"/>
-      <c r="E221" s="89"/>
-      <c r="F221" s="89"/>
-      <c r="G221" s="90"/>
+      <c r="C221" s="83"/>
+      <c r="D221" s="83"/>
+      <c r="E221" s="83"/>
+      <c r="F221" s="83"/>
+      <c r="G221" s="84"/>
     </row>
     <row r="222" spans="1:7" s="30" customFormat="1">
       <c r="A222" s="36" t="s">
@@ -8649,23 +8649,23 @@
       <c r="A227" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B227" s="82"/>
-      <c r="C227" s="83"/>
-      <c r="D227" s="83"/>
-      <c r="E227" s="83"/>
-      <c r="F227" s="83"/>
-      <c r="G227" s="84"/>
+      <c r="B227" s="85"/>
+      <c r="C227" s="86"/>
+      <c r="D227" s="86"/>
+      <c r="E227" s="86"/>
+      <c r="F227" s="86"/>
+      <c r="G227" s="87"/>
     </row>
     <row r="228" spans="1:7" s="30" customFormat="1">
       <c r="A228" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B228" s="85" t="s">
+      <c r="B228" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="C228" s="86"/>
-      <c r="D228" s="86"/>
-      <c r="E228" s="87"/>
+      <c r="C228" s="89"/>
+      <c r="D228" s="89"/>
+      <c r="E228" s="90"/>
       <c r="F228" s="33" t="s">
         <v>45</v>
       </c>
@@ -8678,14 +8678,14 @@
       <c r="A229" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B229" s="88" t="s">
+      <c r="B229" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C229" s="89"/>
-      <c r="D229" s="89"/>
-      <c r="E229" s="89"/>
-      <c r="F229" s="89"/>
-      <c r="G229" s="90"/>
+      <c r="C229" s="83"/>
+      <c r="D229" s="83"/>
+      <c r="E229" s="83"/>
+      <c r="F229" s="83"/>
+      <c r="G229" s="84"/>
     </row>
     <row r="230" spans="1:7" s="30" customFormat="1">
       <c r="A230" s="36" t="s">
@@ -8784,23 +8784,23 @@
       <c r="A235" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B235" s="82"/>
-      <c r="C235" s="83"/>
-      <c r="D235" s="83"/>
-      <c r="E235" s="83"/>
-      <c r="F235" s="83"/>
-      <c r="G235" s="84"/>
+      <c r="B235" s="85"/>
+      <c r="C235" s="86"/>
+      <c r="D235" s="86"/>
+      <c r="E235" s="86"/>
+      <c r="F235" s="86"/>
+      <c r="G235" s="87"/>
     </row>
     <row r="236" spans="1:7" s="30" customFormat="1">
       <c r="A236" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B236" s="85" t="s">
+      <c r="B236" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="C236" s="86"/>
-      <c r="D236" s="86"/>
-      <c r="E236" s="87"/>
+      <c r="C236" s="89"/>
+      <c r="D236" s="89"/>
+      <c r="E236" s="90"/>
       <c r="F236" s="33" t="s">
         <v>45</v>
       </c>
@@ -8813,14 +8813,14 @@
       <c r="A237" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B237" s="88" t="s">
+      <c r="B237" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C237" s="89"/>
-      <c r="D237" s="89"/>
-      <c r="E237" s="89"/>
-      <c r="F237" s="89"/>
-      <c r="G237" s="90"/>
+      <c r="C237" s="83"/>
+      <c r="D237" s="83"/>
+      <c r="E237" s="83"/>
+      <c r="F237" s="83"/>
+      <c r="G237" s="84"/>
     </row>
     <row r="238" spans="1:7" s="30" customFormat="1">
       <c r="A238" s="36" t="s">
@@ -8904,23 +8904,23 @@
       <c r="A242" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B242" s="82"/>
-      <c r="C242" s="83"/>
-      <c r="D242" s="83"/>
-      <c r="E242" s="83"/>
-      <c r="F242" s="83"/>
-      <c r="G242" s="84"/>
+      <c r="B242" s="85"/>
+      <c r="C242" s="86"/>
+      <c r="D242" s="86"/>
+      <c r="E242" s="86"/>
+      <c r="F242" s="86"/>
+      <c r="G242" s="87"/>
     </row>
     <row r="243" spans="1:7" s="30" customFormat="1">
       <c r="A243" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B243" s="85" t="s">
+      <c r="B243" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="86"/>
-      <c r="D243" s="86"/>
-      <c r="E243" s="87"/>
+      <c r="C243" s="89"/>
+      <c r="D243" s="89"/>
+      <c r="E243" s="90"/>
       <c r="F243" s="33" t="s">
         <v>45</v>
       </c>
@@ -8933,14 +8933,14 @@
       <c r="A244" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B244" s="88" t="s">
+      <c r="B244" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C244" s="89"/>
-      <c r="D244" s="89"/>
-      <c r="E244" s="89"/>
-      <c r="F244" s="89"/>
-      <c r="G244" s="90"/>
+      <c r="C244" s="83"/>
+      <c r="D244" s="83"/>
+      <c r="E244" s="83"/>
+      <c r="F244" s="83"/>
+      <c r="G244" s="84"/>
     </row>
     <row r="245" spans="1:7" s="30" customFormat="1">
       <c r="A245" s="36" t="s">
@@ -9058,23 +9058,23 @@
       <c r="A251" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="82"/>
-      <c r="C251" s="83"/>
-      <c r="D251" s="83"/>
-      <c r="E251" s="83"/>
-      <c r="F251" s="83"/>
-      <c r="G251" s="84"/>
+      <c r="B251" s="85"/>
+      <c r="C251" s="86"/>
+      <c r="D251" s="86"/>
+      <c r="E251" s="86"/>
+      <c r="F251" s="86"/>
+      <c r="G251" s="87"/>
     </row>
     <row r="252" spans="1:7" s="30" customFormat="1">
       <c r="A252" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B252" s="85" t="s">
+      <c r="B252" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="C252" s="86"/>
-      <c r="D252" s="86"/>
-      <c r="E252" s="87"/>
+      <c r="C252" s="89"/>
+      <c r="D252" s="89"/>
+      <c r="E252" s="90"/>
       <c r="F252" s="33" t="s">
         <v>45</v>
       </c>
@@ -9087,14 +9087,14 @@
       <c r="A253" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B253" s="88" t="s">
+      <c r="B253" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C253" s="89"/>
-      <c r="D253" s="89"/>
-      <c r="E253" s="89"/>
-      <c r="F253" s="89"/>
-      <c r="G253" s="90"/>
+      <c r="C253" s="83"/>
+      <c r="D253" s="83"/>
+      <c r="E253" s="83"/>
+      <c r="F253" s="83"/>
+      <c r="G253" s="84"/>
     </row>
     <row r="254" spans="1:7" s="30" customFormat="1">
       <c r="A254" s="36" t="s">
@@ -9229,23 +9229,23 @@
       <c r="A261" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B261" s="82"/>
-      <c r="C261" s="83"/>
-      <c r="D261" s="83"/>
-      <c r="E261" s="83"/>
-      <c r="F261" s="83"/>
-      <c r="G261" s="84"/>
+      <c r="B261" s="85"/>
+      <c r="C261" s="86"/>
+      <c r="D261" s="86"/>
+      <c r="E261" s="86"/>
+      <c r="F261" s="86"/>
+      <c r="G261" s="87"/>
     </row>
     <row r="262" spans="1:7" s="30" customFormat="1">
       <c r="A262" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="B262" s="85" t="s">
+      <c r="B262" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="C262" s="86"/>
-      <c r="D262" s="86"/>
-      <c r="E262" s="87"/>
+      <c r="C262" s="89"/>
+      <c r="D262" s="89"/>
+      <c r="E262" s="90"/>
       <c r="F262" s="33" t="s">
         <v>45</v>
       </c>
@@ -9258,14 +9258,14 @@
       <c r="A263" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B263" s="88" t="s">
+      <c r="B263" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C263" s="89"/>
-      <c r="D263" s="89"/>
-      <c r="E263" s="89"/>
-      <c r="F263" s="89"/>
-      <c r="G263" s="90"/>
+      <c r="C263" s="83"/>
+      <c r="D263" s="83"/>
+      <c r="E263" s="83"/>
+      <c r="F263" s="83"/>
+      <c r="G263" s="84"/>
     </row>
     <row r="264" spans="1:7" s="30" customFormat="1">
       <c r="A264" s="36" t="s">
@@ -9364,12 +9364,12 @@
       <c r="A269" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B269" s="82"/>
-      <c r="C269" s="83"/>
-      <c r="D269" s="83"/>
-      <c r="E269" s="83"/>
-      <c r="F269" s="83"/>
-      <c r="G269" s="84"/>
+      <c r="B269" s="85"/>
+      <c r="C269" s="86"/>
+      <c r="D269" s="86"/>
+      <c r="E269" s="86"/>
+      <c r="F269" s="86"/>
+      <c r="G269" s="87"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="8"/>
@@ -15716,6 +15716,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="B261:G261"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="B269:G269"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="B237:G237"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B229:G229"/>
+    <mergeCell ref="B235:G235"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B204:G204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B190:G190"/>
     <mergeCell ref="B221:G221"/>
     <mergeCell ref="B227:G227"/>
     <mergeCell ref="B180:E180"/>
@@ -15732,61 +15787,6 @@
     <mergeCell ref="B188:G188"/>
     <mergeCell ref="B198:E198"/>
     <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B236:E236"/>
-    <mergeCell ref="B237:G237"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B229:G229"/>
-    <mergeCell ref="B235:G235"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B261:G261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="B269:G269"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B251:G251"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B253:G253"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F457:F459 F464:F470 F683:F685 F673:F678 F475:F484 F489:F492 F497:F502 F507:F515 F520:F529 F534:F544 F549:F559 F575:F581 F603:F605 F564:F570 F586:F592 F597:F598 F610:F616 F621:F627 F643:F645 F632:F638 F650:F653 F658:F660 F665:F668 F33:F36 F49:F52 F67:F76 F21:F29 F40:F44 F57:F63 F92:F100 F80:F88 F104:F112 F116:F124 F128:F136 F140:F148 F152:F160 F208:F210 F189 F201:F203 F215:F218 F223:F226 F183:F187 F164:F169 F173:F180 F192:F196 F231:F234 F239:F241 F246:F250 F255:F260 F265:F268" xr:uid="{5BF4C602-8A09-455E-BCDD-DC5F1FB3F988}">

--- a/TCS_NEWUI-ViewAd popup.xlsx
+++ b/TCS_NEWUI-ViewAd popup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC6F18-FA6D-415B-82B5-C5253836E7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323514F8-9715-4083-A390-B6FD71B28E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48F7C0BB-C9F3-40D2-A62C-5F9EA527FC65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{48F7C0BB-C9F3-40D2-A62C-5F9EA527FC65}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="272">
   <si>
     <t>TC#</t>
   </si>
@@ -1173,6 +1173,24 @@
   <si>
     <t>SMRT-7485</t>
   </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>Verify loading time of Markets tab</t>
+  </si>
+  <si>
+    <t>SMRT-8197</t>
+  </si>
+  <si>
+    <t>US:WEB-7387_TC 27</t>
+  </si>
+  <si>
+    <t>Click on Markets TAB from Carousel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Creatives with large market data  should be load within 5 seconds </t>
+  </si>
 </sst>
 </file>
 
@@ -1181,7 +1199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,6 +1334,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1901,7 +1926,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2113,15 +2138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2139,6 +2155,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2158,6 +2183,7 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="40% - Accent2 2 3 2 2" xfId="17" xr:uid="{A049298A-83DC-41BA-95E7-8244D41B76B3}"/>
@@ -2876,7 +2902,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,10 +3966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681487C-B02A-4BFD-ADD9-34AC95343EB1}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4224,6 +4250,17 @@
         <v>256</v>
       </c>
     </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A20"/>
@@ -4236,10 +4273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9683C45-4068-4264-A639-9646BF3B40A9}">
-  <dimension ref="A1:H974"/>
+  <dimension ref="A1:H972"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4986,7 +5023,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="17">
-        <f>COUNTIF(G11:G1100,"Pass")</f>
+        <f>COUNTIF(G11:G1098,"Pass")</f>
         <v>24</v>
       </c>
     </row>
@@ -5002,7 +5039,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="17">
-        <f>COUNTIF(G12:G1101,"Fail")</f>
+        <f>COUNTIF(G12:G1099,"Fail")</f>
         <v>2</v>
       </c>
     </row>
@@ -5020,7 +5057,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="17">
-        <f>COUNTIF(G13:G1102,"Blocked")</f>
+        <f>COUNTIF(G13:G1100,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -5036,8 +5073,8 @@
         <v>39</v>
       </c>
       <c r="G10" s="17">
-        <f>COUNTIF(G14:G1103,"Not Executed")</f>
-        <v>0</v>
+        <f>COUNTIF(G14:G1101,"Not Executed")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5089,7 +5126,7 @@
       </c>
       <c r="C14" s="7">
         <f>G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="5"/>
@@ -5128,12 +5165,12 @@
       <c r="A18" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="33" t="s">
         <v>45</v>
       </c>
@@ -5147,14 +5184,14 @@
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1">
       <c r="A20" s="36" t="s">
@@ -5321,23 +5358,23 @@
       <c r="A29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="84"/>
     </row>
     <row r="30" spans="1:8" s="30" customFormat="1">
       <c r="A30" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="33" t="s">
         <v>45</v>
       </c>
@@ -5351,14 +5388,14 @@
       <c r="A31" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="84"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="1:8" s="30" customFormat="1">
       <c r="A32" s="36" t="s">
@@ -5440,23 +5477,23 @@
       <c r="A36" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="87"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="84"/>
     </row>
     <row r="37" spans="1:8" s="30" customFormat="1">
       <c r="A37" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="33" t="s">
         <v>45</v>
       </c>
@@ -5469,14 +5506,14 @@
       <c r="A38" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
     </row>
     <row r="39" spans="1:8" s="30" customFormat="1">
       <c r="A39" s="36" t="s">
@@ -5594,23 +5631,23 @@
       <c r="A45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="84"/>
     </row>
     <row r="46" spans="1:8" s="30" customFormat="1">
       <c r="A46" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="90"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="33" t="s">
         <v>45</v>
       </c>
@@ -5623,14 +5660,14 @@
       <c r="A47" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
     </row>
     <row r="48" spans="1:8" s="30" customFormat="1">
       <c r="A48" s="36" t="s">
@@ -5727,23 +5764,23 @@
       <c r="A53" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="87"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="84"/>
     </row>
     <row r="54" spans="1:7" s="30" customFormat="1">
       <c r="A54" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="90"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="87"/>
       <c r="F54" s="33" t="s">
         <v>45</v>
       </c>
@@ -5756,14 +5793,14 @@
       <c r="A55" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="84"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
     </row>
     <row r="56" spans="1:7" s="30" customFormat="1">
       <c r="A56" s="36" t="s">
@@ -5894,23 +5931,23 @@
       <c r="A63" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="85"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
     </row>
     <row r="64" spans="1:7" s="30" customFormat="1">
       <c r="A64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="90"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="87"/>
       <c r="F64" s="33" t="s">
         <v>45</v>
       </c>
@@ -5923,14 +5960,14 @@
       <c r="A65" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="84"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
     </row>
     <row r="66" spans="1:7" s="30" customFormat="1">
       <c r="A66" s="36" t="s">
@@ -6123,12 +6160,12 @@
       <c r="A77" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="90"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="87"/>
       <c r="F77" s="33" t="s">
         <v>45</v>
       </c>
@@ -6141,14 +6178,14 @@
       <c r="A78" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="84"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
     </row>
     <row r="79" spans="1:7" s="30" customFormat="1">
       <c r="A79" s="36" t="s">
@@ -6326,12 +6363,12 @@
       <c r="A89" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="88" t="s">
+      <c r="B89" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="90"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="87"/>
       <c r="F89" s="33" t="s">
         <v>45</v>
       </c>
@@ -6344,14 +6381,14 @@
       <c r="A90" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="84"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="90"/>
     </row>
     <row r="91" spans="1:7" s="30" customFormat="1">
       <c r="A91" s="36" t="s">
@@ -6529,12 +6566,12 @@
       <c r="A101" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="88" t="s">
+      <c r="B101" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="90"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="87"/>
       <c r="F101" s="33" t="s">
         <v>45</v>
       </c>
@@ -6547,14 +6584,14 @@
       <c r="A102" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B102" s="82" t="s">
+      <c r="B102" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="84"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="89"/>
+      <c r="G102" s="90"/>
     </row>
     <row r="103" spans="1:7" s="30" customFormat="1">
       <c r="A103" s="36" t="s">
@@ -6732,12 +6769,12 @@
       <c r="A113" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="88" t="s">
+      <c r="B113" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="90"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="87"/>
       <c r="F113" s="33" t="s">
         <v>45</v>
       </c>
@@ -6750,14 +6787,14 @@
       <c r="A114" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B114" s="82" t="s">
+      <c r="B114" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="84"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="90"/>
     </row>
     <row r="115" spans="1:7" s="30" customFormat="1">
       <c r="A115" s="36" t="s">
@@ -6935,12 +6972,12 @@
       <c r="A125" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="88" t="s">
+      <c r="B125" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="90"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="87"/>
       <c r="F125" s="33" t="s">
         <v>45</v>
       </c>
@@ -6953,14 +6990,14 @@
       <c r="A126" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="82" t="s">
+      <c r="B126" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="83"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="84"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="89"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="89"/>
+      <c r="G126" s="90"/>
     </row>
     <row r="127" spans="1:7" s="30" customFormat="1">
       <c r="A127" s="36" t="s">
@@ -7138,12 +7175,12 @@
       <c r="A137" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="88" t="s">
+      <c r="B137" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="90"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="86"/>
+      <c r="E137" s="87"/>
       <c r="F137" s="33" t="s">
         <v>45</v>
       </c>
@@ -7156,14 +7193,14 @@
       <c r="A138" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B138" s="82" t="s">
+      <c r="B138" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="83"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="84"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="90"/>
     </row>
     <row r="139" spans="1:7" s="30" customFormat="1">
       <c r="A139" s="36" t="s">
@@ -7341,12 +7378,12 @@
       <c r="A149" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="88" t="s">
+      <c r="B149" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="90"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="87"/>
       <c r="F149" s="33" t="s">
         <v>45</v>
       </c>
@@ -7359,14 +7396,14 @@
       <c r="A150" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B150" s="82" t="s">
+      <c r="B150" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="83"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="84"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="90"/>
     </row>
     <row r="151" spans="1:7" s="30" customFormat="1">
       <c r="A151" s="36" t="s">
@@ -7544,12 +7581,12 @@
       <c r="A161" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B161" s="88" t="s">
+      <c r="B161" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C161" s="89"/>
-      <c r="D161" s="89"/>
-      <c r="E161" s="90"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="86"/>
+      <c r="E161" s="87"/>
       <c r="F161" s="33" t="s">
         <v>45</v>
       </c>
@@ -7562,14 +7599,14 @@
       <c r="A162" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B162" s="82" t="s">
+      <c r="B162" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="83"/>
-      <c r="D162" s="83"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="84"/>
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89"/>
+      <c r="F162" s="89"/>
+      <c r="G162" s="90"/>
     </row>
     <row r="163" spans="1:7" s="30" customFormat="1">
       <c r="A163" s="36" t="s">
@@ -7694,12 +7731,12 @@
       <c r="A170" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B170" s="88" t="s">
+      <c r="B170" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C170" s="89"/>
-      <c r="D170" s="89"/>
-      <c r="E170" s="90"/>
+      <c r="C170" s="86"/>
+      <c r="D170" s="86"/>
+      <c r="E170" s="87"/>
       <c r="F170" s="33" t="s">
         <v>45</v>
       </c>
@@ -7712,14 +7749,14 @@
       <c r="A171" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B171" s="82" t="s">
+      <c r="B171" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="83"/>
-      <c r="D171" s="83"/>
-      <c r="E171" s="83"/>
-      <c r="F171" s="83"/>
-      <c r="G171" s="84"/>
+      <c r="C171" s="89"/>
+      <c r="D171" s="89"/>
+      <c r="E171" s="89"/>
+      <c r="F171" s="89"/>
+      <c r="G171" s="90"/>
     </row>
     <row r="172" spans="1:7" s="30" customFormat="1">
       <c r="A172" s="36" t="s">
@@ -7861,12 +7898,12 @@
       <c r="A180" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B180" s="88" t="s">
+      <c r="B180" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="89"/>
-      <c r="D180" s="89"/>
-      <c r="E180" s="90"/>
+      <c r="C180" s="86"/>
+      <c r="D180" s="86"/>
+      <c r="E180" s="87"/>
       <c r="F180" s="33"/>
       <c r="G180" s="34" t="str">
         <f>IF(COUNTIF(F183:F187,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F183:F187,"Fail")&gt;0,"Fail",IF(COUNTIF(F183:F187,"")=0,"Pass","Not Executed")))</f>
@@ -7877,14 +7914,14 @@
       <c r="A181" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B181" s="82" t="s">
+      <c r="B181" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C181" s="83"/>
-      <c r="D181" s="83"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="84"/>
+      <c r="C181" s="89"/>
+      <c r="D181" s="89"/>
+      <c r="E181" s="89"/>
+      <c r="F181" s="89"/>
+      <c r="G181" s="90"/>
     </row>
     <row r="182" spans="1:8" s="30" customFormat="1">
       <c r="A182" s="36" t="s">
@@ -7998,23 +8035,23 @@
       <c r="A188" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B188" s="85"/>
-      <c r="C188" s="86"/>
-      <c r="D188" s="86"/>
-      <c r="E188" s="86"/>
-      <c r="F188" s="86"/>
-      <c r="G188" s="87"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="83"/>
+      <c r="D188" s="83"/>
+      <c r="E188" s="83"/>
+      <c r="F188" s="83"/>
+      <c r="G188" s="84"/>
     </row>
     <row r="189" spans="1:8" s="43" customFormat="1">
       <c r="A189" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B189" s="88" t="s">
+      <c r="B189" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C189" s="89"/>
-      <c r="D189" s="89"/>
-      <c r="E189" s="90"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="86"/>
+      <c r="E189" s="87"/>
       <c r="F189" s="33"/>
       <c r="G189" s="34" t="str">
         <f>IF(COUNTIF(F192:F196,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F192:F196,"Fail")&gt;0,"Fail",IF(COUNTIF(F192:F196,"")=0,"Pass","Not Executed")))</f>
@@ -8025,14 +8062,14 @@
       <c r="A190" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B190" s="82" t="s">
+      <c r="B190" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C190" s="83"/>
-      <c r="D190" s="83"/>
-      <c r="E190" s="83"/>
-      <c r="F190" s="83"/>
-      <c r="G190" s="84"/>
+      <c r="C190" s="89"/>
+      <c r="D190" s="89"/>
+      <c r="E190" s="89"/>
+      <c r="F190" s="89"/>
+      <c r="G190" s="90"/>
     </row>
     <row r="191" spans="1:8" s="43" customFormat="1">
       <c r="A191" s="36" t="s">
@@ -8160,12 +8197,12 @@
       <c r="A198" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B198" s="88" t="s">
+      <c r="B198" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C198" s="89"/>
-      <c r="D198" s="89"/>
-      <c r="E198" s="90"/>
+      <c r="C198" s="86"/>
+      <c r="D198" s="86"/>
+      <c r="E198" s="87"/>
       <c r="F198" s="33" t="s">
         <v>45</v>
       </c>
@@ -8178,14 +8215,14 @@
       <c r="A199" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="82" t="s">
+      <c r="B199" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C199" s="83"/>
-      <c r="D199" s="83"/>
-      <c r="E199" s="83"/>
-      <c r="F199" s="83"/>
-      <c r="G199" s="84"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="89"/>
+      <c r="G199" s="90"/>
     </row>
     <row r="200" spans="1:7" s="30" customFormat="1">
       <c r="A200" s="36" t="s">
@@ -8265,23 +8302,23 @@
       <c r="A204" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="85"/>
-      <c r="C204" s="86"/>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="86"/>
-      <c r="G204" s="87"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="83"/>
+      <c r="D204" s="83"/>
+      <c r="E204" s="83"/>
+      <c r="F204" s="83"/>
+      <c r="G204" s="84"/>
     </row>
     <row r="205" spans="1:7" s="30" customFormat="1">
       <c r="A205" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B205" s="88" t="s">
+      <c r="B205" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="89"/>
-      <c r="D205" s="89"/>
-      <c r="E205" s="90"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="86"/>
+      <c r="E205" s="87"/>
       <c r="F205" s="33" t="s">
         <v>45</v>
       </c>
@@ -8294,14 +8331,14 @@
       <c r="A206" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B206" s="82" t="s">
+      <c r="B206" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C206" s="83"/>
-      <c r="D206" s="83"/>
-      <c r="E206" s="83"/>
-      <c r="F206" s="83"/>
-      <c r="G206" s="84"/>
+      <c r="C206" s="89"/>
+      <c r="D206" s="89"/>
+      <c r="E206" s="89"/>
+      <c r="F206" s="89"/>
+      <c r="G206" s="90"/>
     </row>
     <row r="207" spans="1:7" s="30" customFormat="1">
       <c r="A207" s="36" t="s">
@@ -8381,23 +8418,23 @@
       <c r="A211" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="85"/>
-      <c r="C211" s="86"/>
-      <c r="D211" s="86"/>
-      <c r="E211" s="86"/>
-      <c r="F211" s="86"/>
-      <c r="G211" s="87"/>
+      <c r="B211" s="82"/>
+      <c r="C211" s="83"/>
+      <c r="D211" s="83"/>
+      <c r="E211" s="83"/>
+      <c r="F211" s="83"/>
+      <c r="G211" s="84"/>
     </row>
     <row r="212" spans="1:7" s="30" customFormat="1">
       <c r="A212" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B212" s="88" t="s">
+      <c r="B212" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C212" s="89"/>
-      <c r="D212" s="89"/>
-      <c r="E212" s="90"/>
+      <c r="C212" s="86"/>
+      <c r="D212" s="86"/>
+      <c r="E212" s="87"/>
       <c r="F212" s="33" t="s">
         <v>45</v>
       </c>
@@ -8410,14 +8447,14 @@
       <c r="A213" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B213" s="82" t="s">
+      <c r="B213" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C213" s="83"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="83"/>
-      <c r="F213" s="83"/>
-      <c r="G213" s="84"/>
+      <c r="C213" s="89"/>
+      <c r="D213" s="89"/>
+      <c r="E213" s="89"/>
+      <c r="F213" s="89"/>
+      <c r="G213" s="90"/>
     </row>
     <row r="214" spans="1:7" s="30" customFormat="1">
       <c r="A214" s="36" t="s">
@@ -8516,23 +8553,23 @@
       <c r="A219" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B219" s="85"/>
-      <c r="C219" s="86"/>
-      <c r="D219" s="86"/>
-      <c r="E219" s="86"/>
-      <c r="F219" s="86"/>
-      <c r="G219" s="87"/>
+      <c r="B219" s="82"/>
+      <c r="C219" s="83"/>
+      <c r="D219" s="83"/>
+      <c r="E219" s="83"/>
+      <c r="F219" s="83"/>
+      <c r="G219" s="84"/>
     </row>
     <row r="220" spans="1:7" s="30" customFormat="1">
       <c r="A220" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B220" s="88" t="s">
+      <c r="B220" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C220" s="89"/>
-      <c r="D220" s="89"/>
-      <c r="E220" s="90"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="86"/>
+      <c r="E220" s="87"/>
       <c r="F220" s="33" t="s">
         <v>45</v>
       </c>
@@ -8545,14 +8582,14 @@
       <c r="A221" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B221" s="82" t="s">
+      <c r="B221" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C221" s="83"/>
-      <c r="D221" s="83"/>
-      <c r="E221" s="83"/>
-      <c r="F221" s="83"/>
-      <c r="G221" s="84"/>
+      <c r="C221" s="89"/>
+      <c r="D221" s="89"/>
+      <c r="E221" s="89"/>
+      <c r="F221" s="89"/>
+      <c r="G221" s="90"/>
     </row>
     <row r="222" spans="1:7" s="30" customFormat="1">
       <c r="A222" s="36" t="s">
@@ -8649,23 +8686,23 @@
       <c r="A227" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B227" s="85"/>
-      <c r="C227" s="86"/>
-      <c r="D227" s="86"/>
-      <c r="E227" s="86"/>
-      <c r="F227" s="86"/>
-      <c r="G227" s="87"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="83"/>
+      <c r="D227" s="83"/>
+      <c r="E227" s="83"/>
+      <c r="F227" s="83"/>
+      <c r="G227" s="84"/>
     </row>
     <row r="228" spans="1:7" s="30" customFormat="1">
       <c r="A228" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B228" s="88" t="s">
+      <c r="B228" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="C228" s="89"/>
-      <c r="D228" s="89"/>
-      <c r="E228" s="90"/>
+      <c r="C228" s="86"/>
+      <c r="D228" s="86"/>
+      <c r="E228" s="87"/>
       <c r="F228" s="33" t="s">
         <v>45</v>
       </c>
@@ -8678,14 +8715,14 @@
       <c r="A229" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B229" s="82" t="s">
+      <c r="B229" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C229" s="83"/>
-      <c r="D229" s="83"/>
-      <c r="E229" s="83"/>
-      <c r="F229" s="83"/>
-      <c r="G229" s="84"/>
+      <c r="C229" s="89"/>
+      <c r="D229" s="89"/>
+      <c r="E229" s="89"/>
+      <c r="F229" s="89"/>
+      <c r="G229" s="90"/>
     </row>
     <row r="230" spans="1:7" s="30" customFormat="1">
       <c r="A230" s="36" t="s">
@@ -8784,23 +8821,23 @@
       <c r="A235" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B235" s="85"/>
-      <c r="C235" s="86"/>
-      <c r="D235" s="86"/>
-      <c r="E235" s="86"/>
-      <c r="F235" s="86"/>
-      <c r="G235" s="87"/>
+      <c r="B235" s="82"/>
+      <c r="C235" s="83"/>
+      <c r="D235" s="83"/>
+      <c r="E235" s="83"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="84"/>
     </row>
     <row r="236" spans="1:7" s="30" customFormat="1">
       <c r="A236" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B236" s="88" t="s">
+      <c r="B236" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="C236" s="89"/>
-      <c r="D236" s="89"/>
-      <c r="E236" s="90"/>
+      <c r="C236" s="86"/>
+      <c r="D236" s="86"/>
+      <c r="E236" s="87"/>
       <c r="F236" s="33" t="s">
         <v>45</v>
       </c>
@@ -8813,14 +8850,14 @@
       <c r="A237" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B237" s="82" t="s">
+      <c r="B237" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C237" s="83"/>
-      <c r="D237" s="83"/>
-      <c r="E237" s="83"/>
-      <c r="F237" s="83"/>
-      <c r="G237" s="84"/>
+      <c r="C237" s="89"/>
+      <c r="D237" s="89"/>
+      <c r="E237" s="89"/>
+      <c r="F237" s="89"/>
+      <c r="G237" s="90"/>
     </row>
     <row r="238" spans="1:7" s="30" customFormat="1">
       <c r="A238" s="36" t="s">
@@ -8904,23 +8941,23 @@
       <c r="A242" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B242" s="85"/>
-      <c r="C242" s="86"/>
-      <c r="D242" s="86"/>
-      <c r="E242" s="86"/>
-      <c r="F242" s="86"/>
-      <c r="G242" s="87"/>
+      <c r="B242" s="82"/>
+      <c r="C242" s="83"/>
+      <c r="D242" s="83"/>
+      <c r="E242" s="83"/>
+      <c r="F242" s="83"/>
+      <c r="G242" s="84"/>
     </row>
     <row r="243" spans="1:7" s="30" customFormat="1">
       <c r="A243" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B243" s="88" t="s">
+      <c r="B243" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="89"/>
-      <c r="D243" s="89"/>
-      <c r="E243" s="90"/>
+      <c r="C243" s="86"/>
+      <c r="D243" s="86"/>
+      <c r="E243" s="87"/>
       <c r="F243" s="33" t="s">
         <v>45</v>
       </c>
@@ -8933,14 +8970,14 @@
       <c r="A244" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B244" s="82" t="s">
+      <c r="B244" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C244" s="83"/>
-      <c r="D244" s="83"/>
-      <c r="E244" s="83"/>
-      <c r="F244" s="83"/>
-      <c r="G244" s="84"/>
+      <c r="C244" s="89"/>
+      <c r="D244" s="89"/>
+      <c r="E244" s="89"/>
+      <c r="F244" s="89"/>
+      <c r="G244" s="90"/>
     </row>
     <row r="245" spans="1:7" s="30" customFormat="1">
       <c r="A245" s="36" t="s">
@@ -9058,23 +9095,23 @@
       <c r="A251" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="85"/>
-      <c r="C251" s="86"/>
-      <c r="D251" s="86"/>
-      <c r="E251" s="86"/>
-      <c r="F251" s="86"/>
-      <c r="G251" s="87"/>
+      <c r="B251" s="82"/>
+      <c r="C251" s="83"/>
+      <c r="D251" s="83"/>
+      <c r="E251" s="83"/>
+      <c r="F251" s="83"/>
+      <c r="G251" s="84"/>
     </row>
     <row r="252" spans="1:7" s="30" customFormat="1">
       <c r="A252" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B252" s="88" t="s">
+      <c r="B252" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="C252" s="89"/>
-      <c r="D252" s="89"/>
-      <c r="E252" s="90"/>
+      <c r="C252" s="86"/>
+      <c r="D252" s="86"/>
+      <c r="E252" s="87"/>
       <c r="F252" s="33" t="s">
         <v>45</v>
       </c>
@@ -9087,14 +9124,14 @@
       <c r="A253" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B253" s="82" t="s">
+      <c r="B253" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C253" s="83"/>
-      <c r="D253" s="83"/>
-      <c r="E253" s="83"/>
-      <c r="F253" s="83"/>
-      <c r="G253" s="84"/>
+      <c r="C253" s="89"/>
+      <c r="D253" s="89"/>
+      <c r="E253" s="89"/>
+      <c r="F253" s="89"/>
+      <c r="G253" s="90"/>
     </row>
     <row r="254" spans="1:7" s="30" customFormat="1">
       <c r="A254" s="36" t="s">
@@ -9229,23 +9266,23 @@
       <c r="A261" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B261" s="85"/>
-      <c r="C261" s="86"/>
-      <c r="D261" s="86"/>
-      <c r="E261" s="86"/>
-      <c r="F261" s="86"/>
-      <c r="G261" s="87"/>
+      <c r="B261" s="82"/>
+      <c r="C261" s="83"/>
+      <c r="D261" s="83"/>
+      <c r="E261" s="83"/>
+      <c r="F261" s="83"/>
+      <c r="G261" s="84"/>
     </row>
     <row r="262" spans="1:7" s="30" customFormat="1">
       <c r="A262" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="B262" s="88" t="s">
+      <c r="B262" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C262" s="89"/>
-      <c r="D262" s="89"/>
-      <c r="E262" s="90"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="86"/>
+      <c r="E262" s="87"/>
       <c r="F262" s="33" t="s">
         <v>45</v>
       </c>
@@ -9258,14 +9295,14 @@
       <c r="A263" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B263" s="82" t="s">
+      <c r="B263" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C263" s="83"/>
-      <c r="D263" s="83"/>
-      <c r="E263" s="83"/>
-      <c r="F263" s="83"/>
-      <c r="G263" s="84"/>
+      <c r="C263" s="89"/>
+      <c r="D263" s="89"/>
+      <c r="E263" s="89"/>
+      <c r="F263" s="89"/>
+      <c r="G263" s="90"/>
     </row>
     <row r="264" spans="1:7" s="30" customFormat="1">
       <c r="A264" s="36" t="s">
@@ -9364,66 +9401,111 @@
       <c r="A269" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B269" s="85"/>
-      <c r="C269" s="86"/>
-      <c r="D269" s="86"/>
-      <c r="E269" s="86"/>
-      <c r="F269" s="86"/>
-      <c r="G269" s="87"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
+      <c r="B269" s="82"/>
+      <c r="C269" s="83"/>
+      <c r="D269" s="83"/>
+      <c r="E269" s="83"/>
+      <c r="F269" s="83"/>
+      <c r="G269" s="84"/>
+    </row>
+    <row r="270" spans="1:7" s="30" customFormat="1">
+      <c r="A270" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C270" s="86"/>
+      <c r="D270" s="86"/>
+      <c r="E270" s="87"/>
+      <c r="F270" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G270" s="34" t="str">
+        <f>IF(COUNTIF(F273:F274,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F273:F274,"Fail")&gt;0,"Fail",IF(COUNTIF(F273:F274,"")=0,"Pass","Not Executed")))</f>
+        <v>Not Executed</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="30" customFormat="1">
+      <c r="A271" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B271" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C271" s="89"/>
+      <c r="D271" s="89"/>
+      <c r="E271" s="89"/>
+      <c r="F271" s="89"/>
+      <c r="G271" s="90"/>
+    </row>
+    <row r="272" spans="1:7" s="30" customFormat="1">
+      <c r="A272" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B272" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C272" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E272" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G272" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="30" customFormat="1" ht="165">
+      <c r="A273" s="37">
+        <v>1</v>
+      </c>
+      <c r="B273" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C273" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D273" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E273" s="39"/>
+      <c r="F273" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G273" s="41"/>
+    </row>
+    <row r="274" spans="1:7" s="30" customFormat="1" ht="15.75">
+      <c r="A274" s="37">
+        <v>2</v>
+      </c>
+      <c r="B274" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C274" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="D274" s="39"/>
+      <c r="E274" s="39"/>
+      <c r="F274" s="40"/>
+      <c r="G274" s="41"/>
+    </row>
+    <row r="275" spans="1:7" s="43" customFormat="1">
+      <c r="A275" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="82"/>
+      <c r="C275" s="83"/>
+      <c r="D275" s="83"/>
+      <c r="E275" s="83"/>
+      <c r="F275" s="83"/>
+      <c r="G275" s="84"/>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="8"/>
@@ -11036,39 +11118,39 @@
       <c r="F454" s="8"/>
       <c r="G454" s="8"/>
     </row>
-    <row r="455" spans="1:8">
-      <c r="A455" s="8"/>
-      <c r="B455" s="8"/>
-      <c r="C455" s="8"/>
-      <c r="D455" s="8"/>
-      <c r="E455" s="8"/>
-      <c r="F455" s="8"/>
-      <c r="G455" s="8"/>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="A456" s="8"/>
-      <c r="B456" s="8"/>
-      <c r="C456" s="8"/>
-      <c r="D456" s="8"/>
-      <c r="E456" s="8"/>
-      <c r="F456" s="8"/>
-      <c r="G456" s="8"/>
-    </row>
-    <row r="457" spans="1:8" ht="15.75">
+    <row r="455" spans="1:8" ht="15.75">
+      <c r="A455" s="5"/>
+      <c r="B455" s="25"/>
+      <c r="C455" s="25"/>
+      <c r="D455" s="44"/>
+      <c r="E455" s="45"/>
+      <c r="F455" s="46"/>
+    </row>
+    <row r="456" spans="1:8" ht="15.75">
+      <c r="A456" s="5"/>
+      <c r="B456" s="25"/>
+      <c r="C456" s="25"/>
+      <c r="D456" s="44"/>
+      <c r="E456" s="45"/>
+      <c r="F456" s="46"/>
+    </row>
+    <row r="457" spans="1:8" s="26" customFormat="1" ht="15.75">
       <c r="A457" s="5"/>
       <c r="B457" s="25"/>
       <c r="C457" s="25"/>
       <c r="D457" s="44"/>
       <c r="E457" s="45"/>
       <c r="F457" s="46"/>
-    </row>
-    <row r="458" spans="1:8" ht="15.75">
+      <c r="H457" s="4"/>
+    </row>
+    <row r="458" spans="1:8" s="26" customFormat="1" ht="15.75">
       <c r="A458" s="5"/>
       <c r="B458" s="25"/>
       <c r="C458" s="25"/>
       <c r="D458" s="44"/>
       <c r="E458" s="45"/>
       <c r="F458" s="46"/>
+      <c r="H458" s="4"/>
     </row>
     <row r="459" spans="1:8" s="26" customFormat="1" ht="15.75">
       <c r="A459" s="5"/>
@@ -15696,35 +15778,57 @@
       <c r="F972" s="46"/>
       <c r="H972" s="4"/>
     </row>
-    <row r="973" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A973" s="5"/>
-      <c r="B973" s="25"/>
-      <c r="C973" s="25"/>
-      <c r="D973" s="44"/>
-      <c r="E973" s="45"/>
-      <c r="F973" s="46"/>
-      <c r="H973" s="4"/>
-    </row>
-    <row r="974" spans="1:8" s="26" customFormat="1" ht="15.75">
-      <c r="A974" s="5"/>
-      <c r="B974" s="25"/>
-      <c r="C974" s="25"/>
-      <c r="D974" s="44"/>
-      <c r="E974" s="45"/>
-      <c r="F974" s="46"/>
-      <c r="H974" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="B261:G261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="B269:G269"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B251:G251"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B253:G253"/>
+  <mergeCells count="74">
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B271:G271"/>
+    <mergeCell ref="B275:G275"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B204:G204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B236:E236"/>
     <mergeCell ref="B237:G237"/>
     <mergeCell ref="B242:G242"/>
@@ -15741,55 +15845,18 @@
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B90:G90"/>
     <mergeCell ref="B53:G53"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B227:G227"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B261:G261"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="B269:G269"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B253:G253"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F457:F459 F464:F470 F683:F685 F673:F678 F475:F484 F489:F492 F497:F502 F507:F515 F520:F529 F534:F544 F549:F559 F575:F581 F603:F605 F564:F570 F586:F592 F597:F598 F610:F616 F621:F627 F643:F645 F632:F638 F650:F653 F658:F660 F665:F668 F33:F36 F49:F52 F67:F76 F21:F29 F40:F44 F57:F63 F92:F100 F80:F88 F104:F112 F116:F124 F128:F136 F140:F148 F152:F160 F208:F210 F189 F201:F203 F215:F218 F223:F226 F183:F187 F164:F169 F173:F180 F192:F196 F231:F234 F239:F241 F246:F250 F255:F260 F265:F268" xr:uid="{5BF4C602-8A09-455E-BCDD-DC5F1FB3F988}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F455:F457 F462:F468 F681:F683 F671:F676 F473:F482 F487:F490 F495:F500 F505:F513 F518:F527 F532:F542 F547:F557 F573:F579 F601:F603 F562:F568 F584:F590 F595:F596 F608:F614 F619:F625 F641:F643 F630:F636 F648:F651 F656:F658 F663:F666 F33:F36 F49:F52 F67:F76 F21:F29 F40:F44 F57:F63 F92:F100 F80:F88 F104:F112 F116:F124 F128:F136 F140:F148 F152:F160 F208:F210 F189 F201:F203 F215:F218 F223:F226 F183:F187 F164:F169 F173:F180 F192:F196 F231:F234 F239:F241 F246:F250 F255:F260 F265:F268 F273:F274" xr:uid="{5BF4C602-8A09-455E-BCDD-DC5F1FB3F988}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
